--- a/Doc/2131.OHS.F.100 29.07.2019 Contractor Working Shedule.xlsx
+++ b/Doc/2131.OHS.F.100 29.07.2019 Contractor Working Shedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huynh viet\Huynh viet\DNF\3.Load lịch\Tháng 07.2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WindowApp\xepcacongnhan\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39044183-B036-4BF1-80CE-DCBE57719490}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="30540" yWindow="2580" windowWidth="17280" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$H$179</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1011,7 +1013,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1000000]h:mm:ss;@"/>
@@ -1305,8 +1307,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 18 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 18 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -1758,6 +1760,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1793,6 +1812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1968,29 +2004,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="48" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2034,7 @@
       <c r="G2" s="48"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="12"/>
       <c r="C3" s="49" t="s">
@@ -2012,7 +2048,7 @@
       </c>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="30">
         <v>0.25</v>
       </c>
@@ -2030,7 +2066,7 @@
       </c>
       <c r="H4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -2080,7 +2116,7 @@
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>A6+1</f>
         <v>2</v>
@@ -2105,7 +2141,7 @@
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A69" si="0">A7+1</f>
         <v>3</v>
@@ -2130,7 +2166,7 @@
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2155,7 +2191,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2180,7 +2216,7 @@
       </c>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2205,7 +2241,7 @@
       </c>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2230,7 +2266,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2255,7 +2291,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2280,7 +2316,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2305,7 +2341,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2330,7 +2366,7 @@
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2355,7 +2391,7 @@
       </c>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2380,7 +2416,7 @@
       </c>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2405,7 +2441,7 @@
       </c>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2430,7 +2466,7 @@
       </c>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2455,7 +2491,7 @@
       </c>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2480,7 +2516,7 @@
       </c>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2505,7 +2541,7 @@
       </c>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2517,10 +2553,10 @@
         <v>43675</v>
       </c>
       <c r="D24" s="16">
-        <v>0.25</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="16">
-        <v>0.58333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F24" s="15">
         <v>43675</v>
@@ -2530,7 +2566,7 @@
       </c>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2555,7 +2591,7 @@
       </c>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2580,7 +2616,7 @@
       </c>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2605,7 +2641,7 @@
       </c>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2630,7 +2666,7 @@
       </c>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2655,7 +2691,7 @@
       </c>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2680,7 +2716,7 @@
       </c>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2705,7 +2741,7 @@
       </c>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2730,7 +2766,7 @@
       </c>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2755,7 +2791,7 @@
       </c>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2780,7 +2816,7 @@
       </c>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2805,7 +2841,7 @@
       </c>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2830,7 +2866,7 @@
       </c>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2855,7 +2891,7 @@
       </c>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2880,7 +2916,7 @@
       </c>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2905,7 +2941,7 @@
       </c>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2930,7 +2966,7 @@
       </c>
       <c r="H40" s="26"/>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2955,7 +2991,7 @@
       </c>
       <c r="H41" s="26"/>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2980,7 +3016,7 @@
       </c>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3005,7 +3041,7 @@
       </c>
       <c r="H43" s="26"/>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3030,7 +3066,7 @@
       </c>
       <c r="H44" s="26"/>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3055,7 +3091,7 @@
       </c>
       <c r="H45" s="26"/>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3080,7 +3116,7 @@
       </c>
       <c r="H46" s="26"/>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3105,7 +3141,7 @@
       </c>
       <c r="H47" s="26"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3130,7 +3166,7 @@
       </c>
       <c r="H48" s="26"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3155,7 +3191,7 @@
       </c>
       <c r="H49" s="26"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3180,7 +3216,7 @@
       </c>
       <c r="H50" s="26"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3205,7 +3241,7 @@
       </c>
       <c r="H51" s="26"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3230,7 +3266,7 @@
       </c>
       <c r="H52" s="26"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3255,7 +3291,7 @@
       </c>
       <c r="H53" s="26"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3280,7 +3316,7 @@
       </c>
       <c r="H54" s="26"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3305,7 +3341,7 @@
       </c>
       <c r="H55" s="26"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3330,7 +3366,7 @@
       </c>
       <c r="H56" s="26"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3355,7 +3391,7 @@
       </c>
       <c r="H57" s="26"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3380,7 +3416,7 @@
       </c>
       <c r="H58" s="26"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3405,7 +3441,7 @@
       </c>
       <c r="H59" s="26"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3430,7 +3466,7 @@
       </c>
       <c r="H60" s="26"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3455,7 +3491,7 @@
       </c>
       <c r="H61" s="26"/>
     </row>
-    <row r="62" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3480,7 +3516,7 @@
       </c>
       <c r="H62" s="26"/>
     </row>
-    <row r="63" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3505,7 +3541,7 @@
       </c>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3530,7 +3566,7 @@
       </c>
       <c r="H64" s="26"/>
     </row>
-    <row r="65" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3555,7 +3591,7 @@
       </c>
       <c r="H65" s="26"/>
     </row>
-    <row r="66" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3580,7 +3616,7 @@
       </c>
       <c r="H66" s="26"/>
     </row>
-    <row r="67" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3605,7 +3641,7 @@
       </c>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3630,7 +3666,7 @@
       </c>
       <c r="H68" s="26"/>
     </row>
-    <row r="69" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3655,7 +3691,7 @@
       </c>
       <c r="H69" s="26"/>
     </row>
-    <row r="70" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <f t="shared" ref="A70:A178" si="1">A69+1</f>
         <v>65</v>
@@ -3680,7 +3716,7 @@
       </c>
       <c r="H70" s="26"/>
     </row>
-    <row r="71" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -3705,7 +3741,7 @@
       </c>
       <c r="H71" s="26"/>
     </row>
-    <row r="72" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3730,7 +3766,7 @@
       </c>
       <c r="H72" s="26"/>
     </row>
-    <row r="73" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3755,7 +3791,7 @@
       </c>
       <c r="H73" s="26"/>
     </row>
-    <row r="74" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3780,7 +3816,7 @@
       </c>
       <c r="H74" s="26"/>
     </row>
-    <row r="75" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3805,7 +3841,7 @@
       </c>
       <c r="H75" s="26"/>
     </row>
-    <row r="76" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3830,7 +3866,7 @@
       </c>
       <c r="H76" s="26"/>
     </row>
-    <row r="77" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3855,7 +3891,7 @@
       </c>
       <c r="H77" s="26"/>
     </row>
-    <row r="78" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3880,7 +3916,7 @@
       </c>
       <c r="H78" s="26"/>
     </row>
-    <row r="79" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3905,7 +3941,7 @@
       </c>
       <c r="H79" s="26"/>
     </row>
-    <row r="80" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3930,7 +3966,7 @@
       </c>
       <c r="H80" s="26"/>
     </row>
-    <row r="81" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3955,7 +3991,7 @@
       </c>
       <c r="H81" s="26"/>
     </row>
-    <row r="82" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3980,7 +4016,7 @@
       </c>
       <c r="H82" s="26"/>
     </row>
-    <row r="83" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4005,7 +4041,7 @@
       </c>
       <c r="H83" s="26"/>
     </row>
-    <row r="84" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4030,7 +4066,7 @@
       </c>
       <c r="H84" s="26"/>
     </row>
-    <row r="85" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4055,7 +4091,7 @@
       </c>
       <c r="H85" s="26"/>
     </row>
-    <row r="86" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4080,7 +4116,7 @@
       </c>
       <c r="H86" s="26"/>
     </row>
-    <row r="87" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4105,7 +4141,7 @@
       </c>
       <c r="H87" s="26"/>
     </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4130,7 +4166,7 @@
       </c>
       <c r="H88" s="26"/>
     </row>
-    <row r="89" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4155,7 +4191,7 @@
       </c>
       <c r="H89" s="26"/>
     </row>
-    <row r="90" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4180,7 +4216,7 @@
       </c>
       <c r="H90" s="26"/>
     </row>
-    <row r="91" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4205,7 +4241,7 @@
       </c>
       <c r="H91" s="26"/>
     </row>
-    <row r="92" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4230,7 +4266,7 @@
       </c>
       <c r="H92" s="26"/>
     </row>
-    <row r="93" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4255,7 +4291,7 @@
       </c>
       <c r="H93" s="26"/>
     </row>
-    <row r="94" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4280,7 +4316,7 @@
       </c>
       <c r="H94" s="26"/>
     </row>
-    <row r="95" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4305,7 +4341,7 @@
       </c>
       <c r="H95" s="26"/>
     </row>
-    <row r="96" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4330,7 +4366,7 @@
       </c>
       <c r="H96" s="26"/>
     </row>
-    <row r="97" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4355,7 +4391,7 @@
       </c>
       <c r="H97" s="26"/>
     </row>
-    <row r="98" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4380,7 +4416,7 @@
       </c>
       <c r="H98" s="26"/>
     </row>
-    <row r="99" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4405,7 +4441,7 @@
       </c>
       <c r="H99" s="26"/>
     </row>
-    <row r="100" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4430,7 +4466,7 @@
       </c>
       <c r="H100" s="26"/>
     </row>
-    <row r="101" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4455,7 +4491,7 @@
       </c>
       <c r="H101" s="26"/>
     </row>
-    <row r="102" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4480,7 +4516,7 @@
       </c>
       <c r="H102" s="26"/>
     </row>
-    <row r="103" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4505,7 +4541,7 @@
       </c>
       <c r="H103" s="26"/>
     </row>
-    <row r="104" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4530,7 +4566,7 @@
       </c>
       <c r="H104" s="26"/>
     </row>
-    <row r="105" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4555,7 +4591,7 @@
       </c>
       <c r="H105" s="26"/>
     </row>
-    <row r="106" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4580,7 +4616,7 @@
       </c>
       <c r="H106" s="26"/>
     </row>
-    <row r="107" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4605,7 +4641,7 @@
       </c>
       <c r="H107" s="26"/>
     </row>
-    <row r="108" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4630,7 +4666,7 @@
       </c>
       <c r="H108" s="26"/>
     </row>
-    <row r="109" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4655,7 +4691,7 @@
       </c>
       <c r="H109" s="26"/>
     </row>
-    <row r="110" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4680,7 +4716,7 @@
       </c>
       <c r="H110" s="26"/>
     </row>
-    <row r="111" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4705,7 +4741,7 @@
       </c>
       <c r="H111" s="26"/>
     </row>
-    <row r="112" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4730,7 +4766,7 @@
       </c>
       <c r="H112" s="26"/>
     </row>
-    <row r="113" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4755,7 +4791,7 @@
       </c>
       <c r="H113" s="26"/>
     </row>
-    <row r="114" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4780,7 +4816,7 @@
       </c>
       <c r="H114" s="26"/>
     </row>
-    <row r="115" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4805,7 +4841,7 @@
       </c>
       <c r="H115" s="26"/>
     </row>
-    <row r="116" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4830,7 +4866,7 @@
       </c>
       <c r="H116" s="26"/>
     </row>
-    <row r="117" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4855,7 +4891,7 @@
       </c>
       <c r="H117" s="26"/>
     </row>
-    <row r="118" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4880,7 +4916,7 @@
       </c>
       <c r="H118" s="26"/>
     </row>
-    <row r="119" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4905,7 +4941,7 @@
       </c>
       <c r="H119" s="26"/>
     </row>
-    <row r="120" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4930,7 +4966,7 @@
       </c>
       <c r="H120" s="26"/>
     </row>
-    <row r="121" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4955,7 +4991,7 @@
       </c>
       <c r="H121" s="26"/>
     </row>
-    <row r="122" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4980,7 +5016,7 @@
       </c>
       <c r="H122" s="26"/>
     </row>
-    <row r="123" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5005,7 +5041,7 @@
       </c>
       <c r="H123" s="26"/>
     </row>
-    <row r="124" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5030,7 +5066,7 @@
       </c>
       <c r="H124" s="26"/>
     </row>
-    <row r="125" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5055,7 +5091,7 @@
       </c>
       <c r="H125" s="26"/>
     </row>
-    <row r="126" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5080,7 +5116,7 @@
       </c>
       <c r="H126" s="26"/>
     </row>
-    <row r="127" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5105,7 +5141,7 @@
       </c>
       <c r="H127" s="26"/>
     </row>
-    <row r="128" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5130,7 +5166,7 @@
       </c>
       <c r="H128" s="26"/>
     </row>
-    <row r="129" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5155,7 +5191,7 @@
       </c>
       <c r="H129" s="26"/>
     </row>
-    <row r="130" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5180,7 +5216,7 @@
       </c>
       <c r="H130" s="26"/>
     </row>
-    <row r="131" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5205,7 +5241,7 @@
       </c>
       <c r="H131" s="26"/>
     </row>
-    <row r="132" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5230,7 +5266,7 @@
       </c>
       <c r="H132" s="26"/>
     </row>
-    <row r="133" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5255,7 +5291,7 @@
       </c>
       <c r="H133" s="26"/>
     </row>
-    <row r="134" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5280,7 +5316,7 @@
       </c>
       <c r="H134" s="26"/>
     </row>
-    <row r="135" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5305,7 +5341,7 @@
       </c>
       <c r="H135" s="26"/>
     </row>
-    <row r="136" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -5330,7 +5366,7 @@
       </c>
       <c r="H136" s="26"/>
     </row>
-    <row r="137" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -5355,7 +5391,7 @@
       </c>
       <c r="H137" s="26"/>
     </row>
-    <row r="138" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <f t="shared" si="1"/>
         <v>133</v>
@@ -5380,7 +5416,7 @@
       </c>
       <c r="H138" s="26"/>
     </row>
-    <row r="139" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <f t="shared" si="1"/>
         <v>134</v>
@@ -5405,7 +5441,7 @@
       </c>
       <c r="H139" s="26"/>
     </row>
-    <row r="140" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <f t="shared" si="1"/>
         <v>135</v>
@@ -5430,7 +5466,7 @@
       </c>
       <c r="H140" s="26"/>
     </row>
-    <row r="141" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <f t="shared" si="1"/>
         <v>136</v>
@@ -5455,7 +5491,7 @@
       </c>
       <c r="H141" s="26"/>
     </row>
-    <row r="142" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -5480,7 +5516,7 @@
       </c>
       <c r="H142" s="26"/>
     </row>
-    <row r="143" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -5505,7 +5541,7 @@
       </c>
       <c r="H143" s="26"/>
     </row>
-    <row r="144" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <f t="shared" si="1"/>
         <v>139</v>
@@ -5530,7 +5566,7 @@
       </c>
       <c r="H144" s="26"/>
     </row>
-    <row r="145" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -5555,7 +5591,7 @@
       </c>
       <c r="H145" s="26"/>
     </row>
-    <row r="146" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <f t="shared" si="1"/>
         <v>141</v>
@@ -5580,7 +5616,7 @@
       </c>
       <c r="H146" s="26"/>
     </row>
-    <row r="147" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -5605,7 +5641,7 @@
       </c>
       <c r="H147" s="26"/>
     </row>
-    <row r="148" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <f t="shared" si="1"/>
         <v>143</v>
@@ -5630,7 +5666,7 @@
       </c>
       <c r="H148" s="26"/>
     </row>
-    <row r="149" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <f t="shared" si="1"/>
         <v>144</v>
@@ -5655,7 +5691,7 @@
       </c>
       <c r="H149" s="26"/>
     </row>
-    <row r="150" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <f t="shared" si="1"/>
         <v>145</v>
@@ -5680,7 +5716,7 @@
       </c>
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <f t="shared" si="1"/>
         <v>146</v>
@@ -5705,7 +5741,7 @@
       </c>
       <c r="H151" s="26"/>
     </row>
-    <row r="152" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <f t="shared" si="1"/>
         <v>147</v>
@@ -5730,7 +5766,7 @@
       </c>
       <c r="H152" s="26"/>
     </row>
-    <row r="153" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -5755,7 +5791,7 @@
       </c>
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <f t="shared" si="1"/>
         <v>149</v>
@@ -5781,7 +5817,7 @@
       <c r="H154" s="26"/>
       <c r="I154" s="40"/>
     </row>
-    <row r="155" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <f t="shared" si="1"/>
         <v>150</v>
@@ -5806,7 +5842,7 @@
       </c>
       <c r="H155" s="26"/>
     </row>
-    <row r="156" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <f t="shared" si="1"/>
         <v>151</v>
@@ -5831,7 +5867,7 @@
       </c>
       <c r="H156" s="26"/>
     </row>
-    <row r="157" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <f t="shared" si="1"/>
         <v>152</v>
@@ -5856,7 +5892,7 @@
       </c>
       <c r="H157" s="26"/>
     </row>
-    <row r="158" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <f t="shared" si="1"/>
         <v>153</v>
@@ -5881,7 +5917,7 @@
       </c>
       <c r="H158" s="26"/>
     </row>
-    <row r="159" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <f t="shared" si="1"/>
         <v>154</v>
@@ -5906,7 +5942,7 @@
       </c>
       <c r="H159" s="26"/>
     </row>
-    <row r="160" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -5931,7 +5967,7 @@
       </c>
       <c r="H160" s="26"/>
     </row>
-    <row r="161" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <f t="shared" si="1"/>
         <v>156</v>
@@ -5956,7 +5992,7 @@
       </c>
       <c r="H161" s="26"/>
     </row>
-    <row r="162" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <f t="shared" si="1"/>
         <v>157</v>
@@ -5969,7 +6005,7 @@
       <c r="G162" s="26"/>
       <c r="H162" s="26"/>
     </row>
-    <row r="163" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <f t="shared" si="1"/>
         <v>158</v>
@@ -5982,7 +6018,7 @@
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
     </row>
-    <row r="164" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <f t="shared" si="1"/>
         <v>159</v>
@@ -5995,7 +6031,7 @@
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
     </row>
-    <row r="165" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -6008,7 +6044,7 @@
       <c r="G165" s="26"/>
       <c r="H165" s="26"/>
     </row>
-    <row r="166" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -6021,7 +6057,7 @@
       <c r="G166" s="26"/>
       <c r="H166" s="26"/>
     </row>
-    <row r="167" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <f t="shared" si="1"/>
         <v>162</v>
@@ -6034,7 +6070,7 @@
       <c r="G167" s="26"/>
       <c r="H167" s="26"/>
     </row>
-    <row r="168" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <f t="shared" si="1"/>
         <v>163</v>
@@ -6047,7 +6083,7 @@
       <c r="G168" s="26"/>
       <c r="H168" s="36"/>
     </row>
-    <row r="169" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <f t="shared" si="1"/>
         <v>164</v>
@@ -6060,7 +6096,7 @@
       <c r="G169" s="26"/>
       <c r="H169" s="36"/>
     </row>
-    <row r="170" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <f t="shared" si="1"/>
         <v>165</v>
@@ -6073,7 +6109,7 @@
       <c r="G170" s="26"/>
       <c r="H170" s="36"/>
     </row>
-    <row r="171" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <f t="shared" si="1"/>
         <v>166</v>
@@ -6086,7 +6122,7 @@
       <c r="G171" s="26"/>
       <c r="H171" s="36"/>
     </row>
-    <row r="172" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <f t="shared" si="1"/>
         <v>167</v>
@@ -6099,7 +6135,7 @@
       <c r="G172" s="26"/>
       <c r="H172" s="36"/>
     </row>
-    <row r="173" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -6112,7 +6148,7 @@
       <c r="G173" s="26"/>
       <c r="H173" s="36"/>
     </row>
-    <row r="174" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <f t="shared" si="1"/>
         <v>169</v>
@@ -6125,7 +6161,7 @@
       <c r="G174" s="26"/>
       <c r="H174" s="36"/>
     </row>
-    <row r="175" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <f t="shared" si="1"/>
         <v>170</v>
@@ -6138,7 +6174,7 @@
       <c r="G175" s="26"/>
       <c r="H175" s="36"/>
     </row>
-    <row r="176" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <f t="shared" si="1"/>
         <v>171</v>
@@ -6151,7 +6187,7 @@
       <c r="G176" s="26"/>
       <c r="H176" s="36"/>
     </row>
-    <row r="177" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <f t="shared" si="1"/>
         <v>172</v>
@@ -6164,7 +6200,7 @@
       <c r="G177" s="26"/>
       <c r="H177" s="36"/>
     </row>
-    <row r="178" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <f t="shared" si="1"/>
         <v>173</v>
@@ -6177,7 +6213,7 @@
       <c r="G178" s="26"/>
       <c r="H178" s="36"/>
     </row>
-    <row r="179" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="50" t="s">
         <v>9</v>
       </c>
@@ -6191,18 +6227,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E184" s="38"/>
       <c r="F184" s="50"/>
       <c r="G184" s="50"/>
       <c r="H184" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:H179"/>
+  <autoFilter ref="B5:H179" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C3:F3"/>
